--- a/NI-2010/Drivers/Resideo Power Vent Valve/EnviraCom Communication/Documentation/GE PV Enviarcom Info data.xlsx
+++ b/NI-2010/Drivers/Resideo Power Vent Valve/EnviraCom Communication/Documentation/GE PV Enviarcom Info data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geappliances.sharepoint.com/sites/technologyext/Water/Gas_Water_Heater/100925  venting options/010_Design_subsystems/017-components/Resideo/Software/PV Software/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TechnologyLab\NI-2010\Drivers\Resideo Power Vent Valve\EnviraCom Communication\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{410987FD-DE11-41FE-9D03-24BE78A1ADAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E8FD01C-2036-4D7C-B805-E6DD027CC8B4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A44932C-7C7C-46B6-851B-B0BAA2D4E513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA87C7C5-DA95-4BB8-BF27-76538E228A5D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Commands" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="158">
   <si>
     <t>Info 10</t>
   </si>
@@ -473,12 +474,218 @@
   <si>
     <t>displayed in decimal but changed in HEX.50F  see below notes on how to change it via EnviraCom.</t>
   </si>
+  <si>
+    <t>Enable Debug Logs</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Factory Test Mode</t>
+  </si>
+  <si>
+    <t>System Wide</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>30 01</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Locality</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Disable Debug Logs</t>
+  </si>
+  <si>
+    <t>30 00</t>
+  </si>
+  <si>
+    <t>Command (Hex)</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Example Command</t>
+  </si>
+  <si>
+    <t>Data (Hex)</t>
+  </si>
+  <si>
+    <t>Change Differential</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>20 28</t>
+  </si>
+  <si>
+    <t>Hex 28 = 40F</t>
+  </si>
+  <si>
+    <t>Change Setpoint</t>
+  </si>
+  <si>
+    <t>DHW Cylinder Setpoint</t>
+  </si>
+  <si>
+    <t>Water Heater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change </t>
+  </si>
+  <si>
+    <t>1D B8</t>
+  </si>
+  <si>
+    <t>1D B8 or 03 E8</t>
+  </si>
+  <si>
+    <t>This command will clear the ambient temperature/combustion chamber BIN for the LDO algo</t>
+  </si>
+  <si>
+    <t>Clear LDO BINs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Combine into 16 bit (1DB8), divde by 100, and convert from C to F. So, in this case, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1D B8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 168.94F.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 03 E8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is 50F, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 120F, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14 2E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 125F, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16 5A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 135F</t>
+    </r>
+  </si>
+  <si>
+    <t>This will enable reading ambient temperature, BINs, ect</t>
+  </si>
+  <si>
+    <t>This will disable debug logs. This is more stable by preventing interrupts on the micro. This is the factory setting for production</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,8 +728,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,8 +756,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -673,11 +894,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -727,12 +963,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -744,6 +974,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,11 +1312,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6A1F61-9864-4A3B-9E7E-5CF92E71B7D6}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="25">
+        <v>30</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="25">
+        <v>30</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="25">
+        <v>20</v>
+      </c>
+      <c r="G4" s="25">
+        <v>28</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="25">
+        <v>21</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25">
+        <v>21</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51428AAF-D073-45DB-BF06-0709E04A18DA}">
   <dimension ref="A2:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1547,7 @@
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1112,7 +1562,7 @@
       <c r="F3" s="5">
         <v>22</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1120,7 +1570,7 @@
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1133,7 +1583,7 @@
       <c r="F4" s="5">
         <v>8</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1185,7 +1635,7 @@
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1200,7 +1650,7 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="22" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1208,7 +1658,7 @@
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1221,13 +1671,13 @@
       <c r="F8" s="5">
         <v>30</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1242,7 +1692,7 @@
       <c r="F9" s="5">
         <v>22</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1250,7 +1700,7 @@
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1263,13 +1713,13 @@
       <c r="F10" s="5">
         <v>8</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1284,7 +1734,7 @@
       <c r="F11" s="5">
         <v>22</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1292,7 +1742,7 @@
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1305,13 +1755,13 @@
       <c r="F12" s="5">
         <v>8</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1326,7 +1776,7 @@
       <c r="F13" s="5">
         <v>22</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1334,7 +1784,7 @@
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1347,13 +1797,13 @@
       <c r="F14" s="5">
         <v>8</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1368,7 +1818,7 @@
       <c r="F15" s="5">
         <v>22</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1376,7 +1826,7 @@
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1389,13 +1839,13 @@
       <c r="F16" s="5">
         <v>8</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1410,7 +1860,7 @@
       <c r="F17" s="5">
         <v>22</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1418,7 +1868,7 @@
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1431,13 +1881,13 @@
       <c r="F18" s="5">
         <v>8</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1452,7 +1902,7 @@
       <c r="F19" s="5">
         <v>22</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1460,7 +1910,7 @@
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1473,7 +1923,7 @@
       <c r="F20" s="5">
         <v>8</v>
       </c>
-      <c r="G20" s="18"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1552,7 +2002,7 @@
       <c r="C29" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1567,7 +2017,7 @@
       <c r="C30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1582,7 +2032,7 @@
       <c r="C31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1597,7 +2047,7 @@
       <c r="C32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="18" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1612,7 +2062,7 @@
       <c r="C33" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="18" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1627,7 +2077,7 @@
       <c r="C34" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1642,7 +2092,7 @@
       <c r="C35" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="19" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1657,7 +2107,7 @@
       <c r="C36" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1672,7 +2122,7 @@
       <c r="C37" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="19" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1687,7 +2137,7 @@
       <c r="C38" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1702,7 +2152,7 @@
       <c r="C39" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1717,7 +2167,7 @@
       <c r="C40" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="18" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1732,7 +2182,7 @@
       <c r="C41" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="18" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1747,7 +2197,7 @@
       <c r="C42" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="19" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1762,7 +2212,7 @@
       <c r="C43" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="19" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1777,7 +2227,7 @@
       <c r="C44" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="18" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1792,7 +2242,7 @@
       <c r="C45" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="18" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1807,7 +2257,7 @@
       <c r="C46" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="18" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1822,7 +2272,7 @@
       <c r="C47" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="19" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1837,7 +2287,7 @@
       <c r="C48" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="18" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1852,7 +2302,7 @@
       <c r="C49" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="18" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1867,7 +2317,7 @@
       <c r="C50" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="18" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1882,7 +2332,7 @@
       <c r="C51" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="20" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1897,7 +2347,7 @@
       <c r="C52" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1912,7 +2362,7 @@
       <c r="C53" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="20" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1927,7 +2377,7 @@
       <c r="C54" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="20" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1942,7 +2392,7 @@
       <c r="C55" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="20" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1964,12 +2414,6 @@
     <row r="57" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="B17:B18"/>
@@ -1980,6 +2424,12 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1987,6 +2437,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D2DCAD52A8D9E84CAC642E2A865284E6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4d532fc36407794ddb75c1caff894ec3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b07911e-14e7-4b1c-9b28-aa61e01ffb60" xmlns:ns3="b8abc8d5-8ffb-4003-87aa-ad3ab6c24289" xmlns:ns4="2c08af7d-16ed-45d2-a12a-58c107ba7155" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d3b2cac200680ca3596df733f895bcd" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="3b07911e-14e7-4b1c-9b28-aa61e01ffb60"/>
@@ -2246,16 +2705,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{530EA5B0-2CBD-4F24-BB34-03EDD78BEDE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{253CD0A0-51AD-452F-888F-1451E3963B66}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2273,12 +2731,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{530EA5B0-2CBD-4F24-BB34-03EDD78BEDE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>